--- a/biology/Botanique/Colli_del_Trasimeno_rosso_scelto/Colli_del_Trasimeno_rosso_scelto.xlsx
+++ b/biology/Botanique/Colli_del_Trasimeno_rosso_scelto/Colli_del_Trasimeno_rosso_scelto.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Colli del Trasimeno rosso scelto est un vin rouge de la région Ombrie doté d'une appellation DOC depuis le 13 janvier 1972. Seuls ont droit à la DOC les vins récoltés à l'intérieur de l'aire de production définie par le décret.
@@ -514,7 +526,9 @@
           <t>Aire de production</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les vignobles autorisés se situent en province de Pérouse près du Lac Trasimène dans les communes de Castiglione del Lago, Città della Pieve, Paciano, Piegaro, Panicale, Pérouse, Corciano, Magione, Passignano sul Trasimeno et Tuoro sul Trasimeno.
 </t>
@@ -545,7 +559,9 @@
           <t>Caractéristiques organoleptiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">couleur : rouge rubis  plus ou moins intense avec des reflets violacées.
 odeur : vineux, parfumé, intense
@@ -580,6 +596,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -606,6 +624,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -631,7 +651,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Province, saison, volume en hectolitres : 
  pas de données disponibles </t>
